--- a/public/mno-mobile-statistics-updates.xlsx
+++ b/public/mno-mobile-statistics-updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaput\Documents\ZICTA\Documents\mno stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\Zicta\zicta-website-client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C138FA-B4B6-4479-90AF-92A0196DA393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEEDC4-37BF-455C-98BA-735A3766D0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobile-Tariffs" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>SMS off-net</t>
   </si>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -278,13 +278,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,35 +567,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:O43"/>
+  <dimension ref="B1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="15" t="s">
@@ -620,7 +620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:15" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>2010</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <v>2011</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>2012</v>
       </c>
@@ -744,7 +744,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>2013</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>2014</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>2015</v>
       </c>
@@ -837,7 +837,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2016</v>
       </c>
@@ -868,7 +868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>2016</v>
       </c>
@@ -899,7 +899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>2016</v>
       </c>
@@ -930,7 +930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>2016</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0.23288333333333336</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>2016</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0.23288333333333336</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>2017</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>2017</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>2017</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>2017</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>2017</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>2018</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>2018</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>2018</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>2018</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>2018</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>2019</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>2019</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>2019</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>2019</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>2019</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>2020</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>2020</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>2020</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>2020</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>2020</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0.31592533333333334</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>2021</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>2021</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>2021</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="17">
-        <v>0.25715000470573923</v>
+        <v>0.25715000470573929</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="17">
@@ -1705,7 +1705,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>2021</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>2021</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>2022</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>2022</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="17">
-        <v>0.26751771381229689</v>
+        <v>0.26751771381229683</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="17">
@@ -1829,7 +1829,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>2022</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>2022</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0.28736666666666666</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>2022</v>
       </c>
@@ -1919,6 +1919,161 @@
         <v>0.24283333333333332</v>
       </c>
       <c r="L43" s="19">
+        <v>0.28736666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.28879424160872186</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="17">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="17">
+        <v>0.24283333333333332</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0.28736666666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.27981624242505815</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="17">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="17">
+        <v>0.24283333333333332</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0.28736666666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0.28112017491126645</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="17">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1</v>
+      </c>
+      <c r="I46" s="17">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="17">
+        <v>0.24283333333333332</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0.28736666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0.34092846135207322</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="17">
+        <v>1</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1</v>
+      </c>
+      <c r="I47" s="17">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="17">
+        <v>0.24283333333333332</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0.28736666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="19">
+        <v>0.29870866574332156</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="19">
+        <v>1</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1</v>
+      </c>
+      <c r="H48" s="19">
+        <v>1</v>
+      </c>
+      <c r="I48" s="19">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="19">
+        <v>0.24283333333333332</v>
+      </c>
+      <c r="L48" s="19">
         <v>0.28736666666666666</v>
       </c>
     </row>
